--- a/biology/Zoologie/Dwykia/Dwykia.xlsx
+++ b/biology/Zoologie/Dwykia/Dwykia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dwykia analensis
 Dwykia est un genre fossile de poissons osseux de l’ordre également fossile des Palaeonisciformes qui ont vécu au cours du Viséen.  Une seule espèce est connue, Dwykia analensis (Gardiner, 1969).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des restes fossiles de Dwykia ont été mis au jour au Afrique du Sud.
 </t>
